--- a/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_09_output_DCs_seurat_clusters_gene_ranking.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_09_output_DCs_seurat_clusters_gene_ranking.xlsx
@@ -1066,7 +1066,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Camk1d</t>
+          <t>Zcwpw1</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Zcwpw1</t>
+          <t>Camk1d</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Adam23</t>
+          <t>Zcwpw1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Zcwpw1</t>
+          <t>Adam23</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
